--- a/数据整理/stocks/A股/创业板/300026-红日药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300026-红日药业.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,13 +863,445 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300026-红日药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300026-红日药业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.61</v>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1295,13 +1338,877 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6915</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5642</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300026-红日药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300026-红日药业.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3269</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.01</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004683</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信高端医疗股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1272</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="4">
@@ -580,226 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0951</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008107</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商医药医疗行业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0784</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0414</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>530016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信恒稳价值混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>65.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515590</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源中证500等权重ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+      <c r="D4" t="n">
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
@@ -808,6 +532,896 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6915</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5642</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,13 +1857,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,36 +1914,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001508</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国新动力灵活配置混合A</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.56</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.01</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9885</t>
+          <t>0.3269</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1338,36 +1952,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110023</t>
+          <t>004683</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达医疗保健行业混合</t>
+          <t>建信高端医疗股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.83</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>77.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0754</t>
+          <t>0.1272</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1376,36 +1990,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001510</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国新动力灵活配置混合C</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.40</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.01</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6915</t>
+          <t>0.0951</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1414,36 +2028,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>008107</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>华商医药医疗行业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>91.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6041</t>
+          <t>0.0784</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1452,36 +2066,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008372</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国阿尔法两年持有期混合</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.04</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.33</t>
+          <t>99.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5642</t>
+          <t>0.0414</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1490,36 +2104,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011460</t>
+          <t>530016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华创新成长混合A</t>
+          <t>建信恒稳价值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.27</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>65.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3865</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1528,36 +2142,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>010434</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>红土创新医疗保健股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2264</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1566,650 +2180,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>570005</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺德成长优势混合</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>95.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1460</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012036</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>68.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0812</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001402</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>信诚新选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20.05</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0536</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0361</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002145</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺安景鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>80.65</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002030</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>信诚新选回报灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.05</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003513</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中邮消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003561</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>65.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011461</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华创新成长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>84.60</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>013920</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>兴华创新医疗6个月持有混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>320016</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>诺安多策略混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.41</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>013921</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>兴华创新医疗6个月持有混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005264</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国都多策略混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>68.91</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003562</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>65.13</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.71</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300026-红日药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300026-红日药业.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>7.01</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>1.61</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.71</v>
       </c>
     </row>
@@ -532,6 +549,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1421,7 +1836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1857,7 +2272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300026-红日药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300026-红日药业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>2.56</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>7.01</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>1.61</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.71</v>
       </c>
     </row>
@@ -549,6 +566,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -946,7 +1703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1836,7 +2593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2272,7 +3029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
